--- a/wodonga/parameters_wodonga_experiments.xlsx
+++ b/wodonga/parameters_wodonga_experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/cholette_qut_edu_au/Documents/ASTRI/python_soiling_model/HelioSoil/data/confidential/wodonga_experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/cholette_qut_edu_au/Documents/ASTRI/python_soiling_model/mirror_soiling_data/wodonga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E3C59491-C052-4A69-98CF-C9E24DE63D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53119FC-BD71-4C25-A0B8-47658526477C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E3C59491-C052-4A69-98CF-C9E24DE63D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3490466-1638-4A72-8B20-82C727C6E1BF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Parameter</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Either "geometry" or "mie". If the latter, you need to supply a Source_Intensity tab in the simulation inputs</t>
+  </si>
+  <si>
+    <t>nominal_reflectance</t>
+  </si>
+  <si>
+    <t>Clean reflectance of all mirrors</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,13 +1057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1065,7 +1071,7 @@
     <col min="4" max="4" width="97.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,13 +1085,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1124,13 +1130,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1311,6 +1317,17 @@
       </c>
       <c r="D21" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
